--- a/data/03.raw.xlsx
+++ b/data/03.raw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/FC39C3D7-302F-4860-A0A1-3FD2E8146C0A/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/maize.methylation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/7B103C40-FFEA-4937-BA31-C4A5D0B60B85/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/maize.methylation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0947E76-FB97-B942-B6AE-B3B5B7227549}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179294D-20D1-3C4B-AC01-87D1E7F4D0FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="8520" windowWidth="19200" windowHeight="14840" firstSheet="1" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
+    <workbookView xWindow="1380" yWindow="12440" windowWidth="19200" windowHeight="14840" activeTab="9" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="sp014" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="620">
   <si>
     <t>SampleID</t>
   </si>
@@ -1892,6 +1892,9 @@
   </si>
   <si>
     <t>Arc60</t>
+  </si>
+  <si>
+    <t>unk</t>
   </si>
 </sst>
 </file>
@@ -2252,7 +2255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7CF7E5-87A6-334D-804E-12F1842AB9BF}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2480,8 +2483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BED8AE-511C-9245-8F81-215E99D2C0F1}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2508,6 +2511,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" t="s">
+        <v>619</v>
+      </c>
       <c r="D2" t="s">
         <v>559</v>
       </c>
@@ -2945,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236B2B9B-0742-A642-9A87-9DB638D36BE9}">
   <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -5134,7 +5143,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5211,6 +5220,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C6" t="s">
+        <v>619</v>
+      </c>
       <c r="E6" t="s">
         <v>462</v>
       </c>
@@ -5462,8 +5477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0B2E70-A4F6-3A45-9CD4-E504FBC2F58F}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5491,6 +5506,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>619</v>
+      </c>
       <c r="C2" t="s">
         <v>614</v>
       </c>
@@ -5731,6 +5749,9 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>619</v>
+      </c>
       <c r="C38" t="s">
         <v>614</v>
       </c>

--- a/data/03.raw.xlsx
+++ b/data/03.raw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/7B103C40-FFEA-4937-BA31-C4A5D0B60B85/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/maize.methylation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/726E6140-CB3F-4FD6-9866-1335F8CAD421/login.msi.umn.edu/home/springer/zhoux379/projects/maize.methylation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179294D-20D1-3C4B-AC01-87D1E7F4D0FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F6D252-877D-184D-AFAD-7F1B0CFCA4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="12440" windowWidth="19200" windowHeight="14840" activeTab="9" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
+    <workbookView xWindow="3480" yWindow="7720" windowWidth="19200" windowHeight="14840" firstSheet="2" activeTab="10" xr2:uid="{BEECB516-7BE0-DE4B-A089-736158D65AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="sp014" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="sp053" sheetId="9" r:id="rId8"/>
     <sheet name="sp056" sheetId="10" r:id="rId9"/>
     <sheet name="sp063" sheetId="11" r:id="rId10"/>
-    <sheet name="template" sheetId="6" r:id="rId11"/>
+    <sheet name="sp064" sheetId="12" r:id="rId11"/>
+    <sheet name="template" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="664">
   <si>
     <t>SampleID</t>
   </si>
@@ -1895,6 +1896,138 @@
   </si>
   <si>
     <t>unk</t>
+  </si>
+  <si>
+    <t>Adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B73xW22 </t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index1_S15</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index2_S16</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index3_S17</t>
+  </si>
+  <si>
+    <t>PH207xB73</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index4_S18</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index5_S19</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index6_S20</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index7_S21</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index8_S22</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index9_S23</t>
+  </si>
+  <si>
+    <t>PH207xW22</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index10_S24</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index11_S25</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index12_S26</t>
+  </si>
+  <si>
+    <t>W22xB73</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index13_S27</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index14_S28</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index23_S33</t>
+  </si>
+  <si>
+    <t>W22xPH207</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index25_S34</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index27_S35</t>
+  </si>
+  <si>
+    <t>SNA_Pool7_Index19_S29</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/Springer_Project_064</t>
+  </si>
+  <si>
+    <t>endosperm</t>
+  </si>
+  <si>
+    <t>BW1</t>
+  </si>
+  <si>
+    <t>BW2</t>
+  </si>
+  <si>
+    <t>BW3</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>BP1</t>
+  </si>
+  <si>
+    <t>BP2</t>
+  </si>
+  <si>
+    <t>BP3</t>
+  </si>
+  <si>
+    <t>PW1</t>
+  </si>
+  <si>
+    <t>PW2</t>
+  </si>
+  <si>
+    <t>PW3</t>
+  </si>
+  <si>
+    <t>WB1</t>
+  </si>
+  <si>
+    <t>WB2</t>
+  </si>
+  <si>
+    <t>WB3</t>
+  </si>
+  <si>
+    <t>WP1</t>
+  </si>
+  <si>
+    <t>WP2</t>
+  </si>
+  <si>
+    <t>WP3</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2389,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2483,7 +2616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BED8AE-511C-9245-8F81-215E99D2C0F1}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2585,6 +2718,306 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9337CDC-9E06-154D-AA06-D012D0BF3666}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>653</v>
+      </c>
+      <c r="C9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C10" t="s">
+        <v>610</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>655</v>
+      </c>
+      <c r="C11" t="s">
+        <v>632</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>656</v>
+      </c>
+      <c r="C12" t="s">
+        <v>632</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>657</v>
+      </c>
+      <c r="C13" t="s">
+        <v>632</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>658</v>
+      </c>
+      <c r="C14" t="s">
+        <v>636</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>659</v>
+      </c>
+      <c r="C15" t="s">
+        <v>636</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>660</v>
+      </c>
+      <c r="C16" t="s">
+        <v>636</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>661</v>
+      </c>
+      <c r="C17" t="s">
+        <v>640</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>662</v>
+      </c>
+      <c r="C18" t="s">
+        <v>640</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>663</v>
+      </c>
+      <c r="C19" t="s">
+        <v>640</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>643</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F54C76E-0C23-8D45-9441-6DB78C378EA3}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2954,7 +3387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236B2B9B-0742-A642-9A87-9DB638D36BE9}">
   <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -4467,500 +4900,505 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84041BA-0BA0-2645-A3A4-52F7B734F318}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="56.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>606</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>349</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
         <v>607</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
         <v>608</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>609</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>606</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
         <v>607</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
         <v>608</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E37" t="s">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>610</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>606</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E43" t="s">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E44" t="s">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E45" t="s">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E46" t="s">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
         <v>607</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E48" t="s">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E49" t="s">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E51" t="s">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E52" t="s">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E53" t="s">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E55" t="s">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
         <v>608</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E57" t="s">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E58" t="s">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E59" t="s">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E60" t="s">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E61" t="s">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E62" t="s">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E63" t="s">
+    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E64" t="s">
+    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
         <v>19</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>606</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E66" t="s">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E67" t="s">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
         <v>607</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E69" t="s">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E70" t="s">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
         <v>608</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E72" t="s">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E73" t="s">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
         <v>86</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>606</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E75" t="s">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E76" t="s">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
         <v>607</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E78" t="s">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E79" t="s">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
         <v>608</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E81" t="s">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E82" t="s">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
         <v>430</v>
       </c>
     </row>
